--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value46.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value46.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6611680714204924</v>
+        <v>1.580195426940918</v>
       </c>
       <c r="B1">
-        <v>1.077487632982621</v>
+        <v>2.315661191940308</v>
       </c>
       <c r="C1">
-        <v>2.701055210821869</v>
+        <v>4.517023086547852</v>
       </c>
       <c r="D1">
-        <v>3.551678749611689</v>
+        <v>4.729501247406006</v>
       </c>
       <c r="E1">
-        <v>1.515792313659595</v>
+        <v>1.567581295967102</v>
       </c>
     </row>
   </sheetData>
